--- a/classification/droptc/sentence/bert-base-uncased/freeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/24677315/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5855038166046143</v>
+        <v>0.9612914323806763</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8062325119972229</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6240206956863403</v>
+        <v>0.5681765675544739</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3368936777114868</v>
+        <v>0.6012255549430847</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7576733231544495</v>
+        <v>0.9935985803604126</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4178300201892853</v>
+        <v>0.9026722311973572</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8152765035629272</v>
+        <v>0.9907616972923279</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6422814726829529</v>
+        <v>0.994852602481842</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6644910573959351</v>
+        <v>0.9907616972923279</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6322352886199951</v>
+        <v>0.9412344694137573</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7496406435966492</v>
+        <v>0.9687369465827942</v>
       </c>
     </row>
     <row r="13">
@@ -791,14 +791,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.372046947479248</v>
+        <v>0.9652963876724243</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2991298139095306</v>
+        <v>0.9703751802444458</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3251613080501556</v>
+        <v>0.6517578363418579</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6727271676063538</v>
+        <v>0.8696495294570923</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4219338893890381</v>
+        <v>0.9700891375541687</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8940787315368652</v>
+        <v>0.6400826573371887</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4089114665985107</v>
+        <v>0.9928892850875854</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8260180950164795</v>
+        <v>0.9277086853981018</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5991469025611877</v>
+        <v>0.9852584004402161</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8609620332717896</v>
+        <v>0.9784144163131714</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3181758522987366</v>
+        <v>0.9645414352416992</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7866029739379883</v>
+        <v>0.9435966014862061</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4024929404258728</v>
+        <v>0.4965632557868958</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8494728207588196</v>
+        <v>0.3656933009624481</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5232805013656616</v>
+        <v>0.8089393973350525</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3955576121807098</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7351047992706299</v>
+        <v>0.8346803784370422</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.734406590461731</v>
+        <v>0.9425669312477112</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4697847366333008</v>
+        <v>0.9480822682380676</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.7010325193405151</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.532556414604187</v>
+        <v>0.5950987935066223</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.684517502784729</v>
+        <v>0.6905823945999146</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.677739679813385</v>
+        <v>0.9468225240707397</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6588954925537109</v>
+        <v>0.9668914675712585</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4712114930152893</v>
+        <v>0.8957521915435791</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7213801145553589</v>
+        <v>0.8562923669815063</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.7838107347488403</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7567017078399658</v>
+        <v>0.4173541069030762</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8663809299468994</v>
+        <v>0.9775655269622803</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8999646306037903</v>
+        <v>0.788887083530426</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8247191905975342</v>
+        <v>0.722431480884552</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.9766800403594971</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.839253842830658</v>
+        <v>0.8395119309425354</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8576166033744812</v>
+        <v>0.8917412161827087</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4545762240886688</v>
+        <v>0.4068432450294495</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4641212224960327</v>
+        <v>0.9315716624259949</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7916253805160522</v>
+        <v>0.996547520160675</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6760284304618835</v>
+        <v>0.8859065175056458</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7761104702949524</v>
+        <v>0.2956842184066772</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8051222562789917</v>
+        <v>0.925754725933075</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6984150409698486</v>
+        <v>0.8859065175056458</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3181758522987366</v>
+        <v>0.5444231629371643</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7701784372329712</v>
+        <v>0.9922884106636047</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5693323612213135</v>
+        <v>0.9985913634300232</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4025495946407318</v>
+        <v>0.9984734654426575</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6704588532447815</v>
+        <v>0.877160906791687</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7020910978317261</v>
+        <v>0.8949143886566162</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7136451005935669</v>
+        <v>0.9606184363365173</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4024929404258728</v>
+        <v>0.880503237247467</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7363907694816589</v>
+        <v>0.9914342164993286</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4057161509990692</v>
+        <v>0.6871954202651978</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8853734731674194</v>
+        <v>0.372980922460556</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8235413432121277</v>
+        <v>0.8728958964347839</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6447528600692749</v>
+        <v>0.8728958964347839</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7270258069038391</v>
+        <v>0.5064167976379395</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.438518762588501</v>
+        <v>0.8728958964347839</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6294494867324829</v>
+        <v>0.5578769445419312</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7468565106391907</v>
+        <v>0.9679234027862549</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8578046560287476</v>
+        <v>0.436797559261322</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8579518795013428</v>
+        <v>0.9752766489982605</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5880881547927856</v>
+        <v>0.9755982160568237</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7228952646255493</v>
+        <v>0.9168965816497803</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4337078928947449</v>
+        <v>0.6730437278747559</v>
       </c>
     </row>
     <row r="76">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5883446931838989</v>
+        <v>0.9755982160568237</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4351414740085602</v>
+        <v>0.9522297382354736</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8313819169998169</v>
+        <v>0.9755982160568237</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3715145289897919</v>
+        <v>0.9896941184997559</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3668563663959503</v>
+        <v>0.9191571474075317</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3226829171180725</v>
+        <v>0.6477545499801636</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6297533512115479</v>
+        <v>0.9191571474075317</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.9547224640846252</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6536675095558167</v>
+        <v>0.9547224640846252</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5977227687835693</v>
+        <v>0.9924851059913635</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6440619230270386</v>
+        <v>0.7602702379226685</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6485912799835205</v>
+        <v>0.8619059920310974</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.667041003704071</v>
+        <v>0.9018164277076721</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8790466785430908</v>
+        <v>0.9853631258010864</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.516058087348938</v>
+        <v>0.9624457955360413</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3611161410808563</v>
+        <v>0.9672913551330566</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5863566994667053</v>
+        <v>0.9685560464859009</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5447838306427002</v>
+        <v>0.9752964973449707</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4024929404258728</v>
+        <v>0.9798127412796021</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7490854263305664</v>
+        <v>0.9729230999946594</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9293563365936279</v>
+        <v>0.5623594522476196</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.667041003704071</v>
+        <v>0.4239112138748169</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5597068071365356</v>
+        <v>0.9852759838104248</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.667041003704071</v>
+        <v>0.3736552894115448</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6857181191444397</v>
+        <v>0.9621998071670532</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5888228416442871</v>
+        <v>0.9526165723800659</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4178300201892853</v>
+        <v>0.35451939702034</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7201800346374512</v>
+        <v>0.9843228459358215</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4025495946407318</v>
+        <v>0.9326714873313904</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.9269092082977295</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6324570178985596</v>
+        <v>0.5658839344978333</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6719368100166321</v>
+        <v>0.4900713860988617</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3366665840148926</v>
+        <v>0.6446596384048462</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.726934015750885</v>
+        <v>0.7277588844299316</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9157727956771851</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8332858681678772</v>
+        <v>0.4910576343536377</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5871764421463013</v>
+        <v>0.4953678548336029</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.723828911781311</v>
+        <v>0.9059556722640991</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7588049173355103</v>
+        <v>0.8104154467582703</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7212490439414978</v>
+        <v>0.4871606230735779</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3368936777114868</v>
+        <v>0.8528102040290833</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8946278691291809</v>
+        <v>0.9644356369972229</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.438518762588501</v>
+        <v>0.4734083116054535</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3955576121807098</v>
+        <v>0.9445232748985291</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7837132215499878</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7870612144470215</v>
+        <v>0.9177546501159668</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6398434042930603</v>
+        <v>0.992210865020752</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4605000913143158</v>
+        <v>0.9177546501159668</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6691007614135742</v>
+        <v>0.992210865020752</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5865885019302368</v>
+        <v>0.9177546501159668</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6338264942169189</v>
+        <v>0.9986844658851624</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6472129225730896</v>
+        <v>0.6514915823936462</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4485724568367004</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5459594130516052</v>
+        <v>0.9645385146141052</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7318882346153259</v>
+        <v>0.9278402328491211</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5562474727630615</v>
+        <v>0.9920836687088013</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7803104519844055</v>
+        <v>0.4581679403781891</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4178300201892853</v>
+        <v>0.9938748478889465</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3350857198238373</v>
+        <v>0.5226954221725464</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3522990345954895</v>
+        <v>0.8619393706321716</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.399987131357193</v>
+        <v>0.4632127583026886</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7406078577041626</v>
+        <v>0.9960886240005493</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3880072832107544</v>
+        <v>0.9511565566062927</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5572783350944519</v>
+        <v>0.9967472553253174</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4441162049770355</v>
+        <v>0.9605745077133179</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9267076849937439</v>
+        <v>0.8759543895721436</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4742368757724762</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6908910274505615</v>
+        <v>0.6806268692016602</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8478721380233765</v>
+        <v>0.9856948256492615</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8366019725799561</v>
+        <v>0.6806268692016602</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8015013933181763</v>
+        <v>0.9774789214134216</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7739220857620239</v>
+        <v>0.5578769445419312</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6291214227676392</v>
+        <v>0.9660429358482361</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2938279807567596</v>
+        <v>0.588757336139679</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7753424048423767</v>
+        <v>0.3925304412841797</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8235501646995544</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7464870810508728</v>
+        <v>0.6121906042098999</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6996166706085205</v>
+        <v>0.9908285140991211</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5914748907089233</v>
+        <v>0.773833155632019</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6032297611236572</v>
+        <v>0.9835595488548279</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7957691550254822</v>
+        <v>0.6855193376541138</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5726962685585022</v>
+        <v>0.9960160851478577</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.94577956199646</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5694016814231873</v>
+        <v>0.9983376264572144</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8452209830284119</v>
+        <v>0.8065792322158813</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8853734731674194</v>
+        <v>0.9184849262237549</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6645026206970215</v>
+        <v>0.8710870742797852</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2999125421047211</v>
+        <v>0.4751465022563934</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3114325702190399</v>
+        <v>0.7871317863464355</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8127112984657288</v>
+        <v>0.8897796869277954</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9296144247055054</v>
+        <v>0.9241809248924255</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9296144247055054</v>
+        <v>0.4244822561740875</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5991469025611877</v>
+        <v>0.4334059953689575</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7089732885360718</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5724292993545532</v>
+        <v>0.4244822561740875</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7394956946372986</v>
+        <v>0.4407997131347656</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2790433466434479</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3416167795658112</v>
+        <v>0.9517742395401001</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7022988796234131</v>
+        <v>0.9657342433929443</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.795774519443512</v>
+        <v>0.9517742395401001</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3350857198238373</v>
+        <v>0.9517742395401001</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7852607369422913</v>
+        <v>0.9657342433929443</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8892654180526733</v>
+        <v>0.99782794713974</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6471711397171021</v>
+        <v>0.9964343309402466</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.8561685681343079</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7746331095695496</v>
+        <v>0.5705618262290955</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.9877723455429077</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6784761548042297</v>
+        <v>0.3542027771472931</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8981292247772217</v>
+        <v>0.984745979309082</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4779141247272491</v>
+        <v>0.9079493880271912</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7943794727325439</v>
+        <v>0.9206570386886597</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6971272230148315</v>
+        <v>0.9643778800964355</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7666903138160706</v>
+        <v>0.9789999723434448</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3130599558353424</v>
+        <v>0.8253705501556396</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6481916308403015</v>
+        <v>0.9138736724853516</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.676149845123291</v>
+        <v>0.5412971377372742</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6790193319320679</v>
+        <v>0.9379966259002686</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4543271660804749</v>
+        <v>0.9796944260597229</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7215520739555359</v>
+        <v>0.8020977973937988</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7676922678947449</v>
+        <v>0.5344597101211548</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7567017078399658</v>
+        <v>0.9925157427787781</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6998904347419739</v>
+        <v>0.982240617275238</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.772499680519104</v>
+        <v>0.9229422211647034</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4699931144714355</v>
+        <v>0.9939824938774109</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8146923780441284</v>
+        <v>0.6449322104454041</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.770932137966156</v>
+        <v>0.9848970174789429</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9582028388977051</v>
+        <v>0.9786922335624695</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8063195943832397</v>
+        <v>0.8260932564735413</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8960537314414978</v>
+        <v>0.2938065528869629</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7441515326499939</v>
+        <v>0.5729726552963257</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9015956521034241</v>
+        <v>0.9979967474937439</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4855806529521942</v>
+        <v>0.4965929985046387</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4650318026542664</v>
+        <v>0.99272620677948</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7507157921791077</v>
+        <v>0.4244360327720642</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.3955576121807098</v>
+        <v>0.9939785003662109</v>
       </c>
     </row>
   </sheetData>
